--- a/Excel/MVS 161-in-1 V3.xlsx
+++ b/Excel/MVS 161-in-1 V3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1703">
   <si>
     <t>Pin</t>
   </si>
@@ -4436,6 +4436,9 @@
     <t>P1-P3</t>
   </si>
   <si>
+    <t>RST#</t>
+  </si>
+  <si>
     <t>CE#</t>
   </si>
   <si>
@@ -4473,9 +4476,6 @@
   </si>
   <si>
     <t>wr. disable</t>
-  </si>
-  <si>
-    <t>RST#</t>
   </si>
   <si>
     <t>no rst</t>
@@ -5596,7 +5596,7 @@
     <xdr:ext cx="2857500" cy="13411200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5652,7 +5652,7 @@
     <xdr:ext cx="2857500" cy="13411200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5713,7 +5713,7 @@
     <xdr:ext cx="11239500" cy="8086725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5746,7 +5746,7 @@
     <xdr:ext cx="8620125" cy="5867400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5800,14 +5800,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2838450" cy="7134225"/>
+    <xdr:ext cx="2438400" cy="7134225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5840,7 +5840,7 @@
     <xdr:ext cx="9372600" cy="6629400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5873,7 +5873,7 @@
     <xdr:ext cx="4352925" cy="4524375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5934,7 +5934,7 @@
     <xdr:ext cx="4667250" cy="5962650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -25541,7 +25541,10 @@
       <c r="B7" s="6">
         <v>3.0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="17" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -25560,7 +25563,10 @@
       <c r="B9" s="6">
         <v>5.0</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -25690,7 +25696,7 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>254</v>
@@ -25739,7 +25745,7 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>275</v>
@@ -25971,13 +25977,13 @@
         <v>1349</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>1351</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="45">
@@ -26372,7 +26378,7 @@
         <v>101</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="I64" s="26"/>
     </row>
@@ -26384,22 +26390,22 @@
         <v>97</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>1349</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="66">
@@ -30558,11 +30564,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="48" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D1" s="26"/>
     </row>
@@ -30589,7 +30595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B5" s="6">
         <v>1.0</v>
@@ -30629,7 +30635,7 @@
         <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="8">
@@ -30748,7 +30754,7 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="18">
@@ -30756,7 +30762,7 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="D18" s="6">
         <v>1.0</v>
@@ -30961,7 +30967,7 @@
         <v>32.0</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D36" s="6">
         <v>0.0</v>
@@ -30984,7 +30990,7 @@
         <v>34.0</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D38" s="6">
         <v>0.0</v>
@@ -31471,7 +31477,7 @@
         <v>1.0</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I75" s="6"/>
     </row>
@@ -31480,7 +31486,7 @@
         <v>14.0</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="D76" s="6">
         <v>1.0</v>
@@ -31703,7 +31709,7 @@
         <v>32.0</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>618</v>
@@ -31725,7 +31731,7 @@
         <v>34.0</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>1524</v>
@@ -37079,7 +37085,7 @@
         <v>1600</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E47" s="51" t="s">
         <v>784</v>
@@ -37895,7 +37901,7 @@
         <v>1672</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1673</v>
@@ -37930,7 +37936,7 @@
         <v>1637</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E49" s="61" t="s">
         <v>1314</v>
